--- a/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/Tasa de analfabetismo - Indígena Panama.xlsx
+++ b/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/Tasa de analfabetismo - Indígena Panama.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\Desktop\SILVIA PLANILLA\P. Indigena El Salvador y Honduras\Panama\Sistema de indicadores sociodemograficos de poblaciones y pueblos indigenas - CELADE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Indígenas\Indicadores sociodemo poblaciones y PI CELADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCD066F4-B7C9-4A80-B17E-A48EEA4DC2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B66F2A0-81E0-4782-B963-13E290E2FF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Output" sheetId="1" r:id="rId1"/>
+    <sheet name="(Original) Tasa analfabet" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasa analfabet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="40">
   <si>
     <t>CEPAL/CELADE Redatam+SP 10/12/2020</t>
   </si>
@@ -107,6 +108,39 @@
   </si>
   <si>
     <t>Procesado con Redatam Webserver - CEPAL/CELADE 2007-2019.</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>Grupo edad</t>
+  </si>
+  <si>
+    <t>año censo</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Ambas</t>
+  </si>
+  <si>
+    <t>Urbano</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Ambos</t>
+  </si>
+  <si>
+    <t>Tasa</t>
   </si>
 </sst>
 </file>
@@ -114,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="##\ ###\ ###\ ###\ ##0.00"/>
+    <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -210,21 +244,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -243,10 +262,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -264,6 +298,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4FECD4A-9CCF-46BC-84B7-3F31E08878D2}" name="Tabla1" displayName="Tabla1" ref="A1:E55" totalsRowShown="0">
+  <autoFilter ref="A1:E55" xr:uid="{A56D1F48-57FC-4C29-8E42-C96AE74E3485}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{36E39B1D-3B1D-4366-8871-A2113F594747}" name="Sexo"/>
+    <tableColumn id="2" xr3:uid="{11B0220C-5981-4D91-AE87-E65A396EA4A4}" name="Zona"/>
+    <tableColumn id="3" xr3:uid="{F59DA26B-1F6D-4DDA-9EE2-A07EEFD9F510}" name="Grupo edad"/>
+    <tableColumn id="4" xr3:uid="{B29C041C-CFC4-4E85-A9A9-4A8E47412B83}" name="año censo"/>
+    <tableColumn id="5" xr3:uid="{89F469CD-41D2-46C5-8764-741C1B66C2F3}" name="Tasa"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,8 +640,8 @@
   </sheetPr>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,1128 +655,1128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="9" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>28.42</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>18.61</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="9" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>16.62</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>7.66</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="7">
         <v>24.94</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="7">
         <v>16.170000000000002</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="9" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="7">
         <v>59.27</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="7">
         <v>43.73</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="7">
         <v>9.2899999999999991</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="7">
         <v>5.99</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="9" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="7">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="7">
         <v>2.73</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="9" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="7">
         <v>7.82</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="7">
         <v>4.5199999999999996</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="9" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="7">
         <v>23.51</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="7">
         <v>16.54</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="9" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="7">
         <v>34.35</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="7">
         <v>23.54</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="9" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="7">
         <v>20.21</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="7">
         <v>9.48</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="9" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="7">
         <v>30.72</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="7">
         <v>21.24</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="9" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="7">
         <v>68.180000000000007</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="7">
         <v>52.7</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="9" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="7">
         <v>47.73</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="7">
         <v>33.450000000000003</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="9" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="7">
         <v>29.55</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="7">
         <v>13.79</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="9" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="7">
         <v>50.15</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="7">
         <v>34.119999999999997</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="9" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="7">
         <v>83.09</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="7">
         <v>70.760000000000005</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="9" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="7">
         <v>18.46</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="7">
         <v>13.43</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="9" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="7">
         <v>8.4700000000000006</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="7">
         <v>4.84</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="9" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="7">
         <v>20.11</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="7">
         <v>12.68</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="9" t="s">
+      <c r="A36" s="1"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="7">
         <v>43.37</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="7">
         <v>35.61</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="9" t="s">
+      <c r="A38" s="1"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="7">
         <v>55.42</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="7">
         <v>40.840000000000003</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="9" t="s">
+      <c r="A39" s="1"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="7">
         <v>35.630000000000003</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="7">
         <v>17.190000000000001</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="9" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="7">
         <v>58.06</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="7">
         <v>42.35</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="9" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="7">
         <v>91.18</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="7">
         <v>81.739999999999995</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="9" t="s">
+      <c r="A43" s="1"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="7">
         <v>13.45</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="7">
         <v>9.58</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="9" t="s">
+      <c r="A44" s="1"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="7">
         <v>6.66</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="7">
         <v>3.79</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="9" t="s">
+      <c r="A45" s="1"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="7">
         <v>13.3</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="7">
         <v>8.43</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="9" t="s">
+      <c r="A46" s="1"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="7">
         <v>31.5</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="7">
         <v>25.24</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
+      <c r="A47" s="1"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10" t="s">
+      <c r="D47" s="4"/>
+      <c r="E47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="9" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="7">
         <v>44.77</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="7">
         <v>32.15</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="9" t="s">
+      <c r="A49" s="1"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="7">
         <v>27.92</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="7">
         <v>13.3</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="9" t="s">
+      <c r="A50" s="1"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="7">
         <v>44.61</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="7">
         <v>32.020000000000003</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="9" t="s">
+      <c r="A51" s="1"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="7">
         <v>78.56</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="7">
         <v>66.34</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
+      <c r="A52" s="1"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="9" t="s">
+      <c r="A53" s="1"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="7">
         <v>37.799999999999997</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="7">
         <v>25.93</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="9" t="s">
+      <c r="A54" s="1"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="7">
         <v>23.04</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="7">
         <v>10.71</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="9" t="s">
+      <c r="A55" s="1"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="7">
         <v>37.39</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="7">
         <v>25.17</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="9" t="s">
+      <c r="A56" s="1"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="7">
         <v>69.81</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="7">
         <v>56.34</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="6"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1758,4 +1806,962 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89778CF-A40D-4910-AFA6-CEB9E984C711}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>16.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>59.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>2010</v>
+      </c>
+      <c r="E5">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>2010</v>
+      </c>
+      <c r="E6">
+        <v>16.170000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>2010</v>
+      </c>
+      <c r="E7">
+        <v>43.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2010</v>
+      </c>
+      <c r="E11">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>2010</v>
+      </c>
+      <c r="E12">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>2010</v>
+      </c>
+      <c r="E13">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14">
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="E16">
+        <v>68.180000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>2010</v>
+      </c>
+      <c r="E17">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>2010</v>
+      </c>
+      <c r="E18">
+        <v>21.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>2010</v>
+      </c>
+      <c r="E19">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>50.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>83.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>2010</v>
+      </c>
+      <c r="E23">
+        <v>13.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>2010</v>
+      </c>
+      <c r="E24">
+        <v>34.119999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>2010</v>
+      </c>
+      <c r="E25">
+        <v>70.760000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>2000</v>
+      </c>
+      <c r="E26">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>2000</v>
+      </c>
+      <c r="E27">
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>2000</v>
+      </c>
+      <c r="E28">
+        <v>43.37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>2010</v>
+      </c>
+      <c r="E29">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>2010</v>
+      </c>
+      <c r="E30">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>2010</v>
+      </c>
+      <c r="E31">
+        <v>35.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>2000</v>
+      </c>
+      <c r="E32">
+        <v>35.630000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>2000</v>
+      </c>
+      <c r="E33">
+        <v>58.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>2000</v>
+      </c>
+      <c r="E34">
+        <v>91.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>2010</v>
+      </c>
+      <c r="E35">
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>2010</v>
+      </c>
+      <c r="E36">
+        <v>42.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>2010</v>
+      </c>
+      <c r="E37">
+        <v>81.739999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>2000</v>
+      </c>
+      <c r="E38">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>2000</v>
+      </c>
+      <c r="E39">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>2000</v>
+      </c>
+      <c r="E40">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>2010</v>
+      </c>
+      <c r="E41">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>2010</v>
+      </c>
+      <c r="E42">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>2010</v>
+      </c>
+      <c r="E43">
+        <v>25.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>2000</v>
+      </c>
+      <c r="E44">
+        <v>27.92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>2000</v>
+      </c>
+      <c r="E45">
+        <v>44.61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>2000</v>
+      </c>
+      <c r="E46">
+        <v>78.56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>2010</v>
+      </c>
+      <c r="E47">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>2010</v>
+      </c>
+      <c r="E48">
+        <v>32.020000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <v>2010</v>
+      </c>
+      <c r="E49">
+        <v>66.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>2000</v>
+      </c>
+      <c r="E50">
+        <v>23.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>2000</v>
+      </c>
+      <c r="E51">
+        <v>37.39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>2000</v>
+      </c>
+      <c r="E52">
+        <v>69.81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>2010</v>
+      </c>
+      <c r="E53">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>2010</v>
+      </c>
+      <c r="E54">
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>2010</v>
+      </c>
+      <c r="E55">
+        <v>56.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>